--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/NPC表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/NPC表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9625D5-9376-4746-A963-5E8983E9E1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA98266-E279-4365-8D25-5241F738C521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="13500" windowHeight="16545" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="19" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/NPC表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/NPC表.xlsx
@@ -5,19 +5,32 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA98266-E279-4365-8D25-5241F738C521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5E2FF-ECD3-443D-A405-C6FFDAB782FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="13500" windowHeight="16545" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="2835" windowWidth="17865" windowHeight="18105" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="19" r:id="rId1"/>
     <sheet name="NPC(obj)|rpgobj表" sheetId="21" r:id="rId2"/>
     <sheet name="(辅助)npc功能菜单辅助表" sheetId="20" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +47,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">liuweiguang:
@@ -50,7 +62,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">liuweiguang:
@@ -60,7 +71,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,7 +90,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>yi:</t>
@@ -89,7 +98,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -115,7 +123,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">liuweiguang:
@@ -131,7 +138,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">liuweiguang:
@@ -141,7 +147,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -161,7 +166,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>yi:</t>
@@ -170,7 +174,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -184,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="293">
   <si>
     <t>ID</t>
   </si>
@@ -216,10 +219,10 @@
     <t>对话框开启等级</t>
   </si>
   <si>
-    <t>对话框开启前置主任务（完成后显示）</t>
-  </si>
-  <si>
-    <t>对话框开启后置主任务（完成后消失）</t>
+    <t>对话框开启前置父任务（完成后显示）</t>
+  </si>
+  <si>
+    <t>对话框开启后置父任务（完成后消失）</t>
   </si>
   <si>
     <t>功能性(纯客户端)组
@@ -370,108 +373,102 @@
     <t>maze_202_1</t>
   </si>
   <si>
+    <t>obj_maze_button</t>
+  </si>
+  <si>
+    <t>maze_202_2</t>
+  </si>
+  <si>
+    <t>maze_202_3</t>
+  </si>
+  <si>
+    <t>maze_202_4</t>
+  </si>
+  <si>
+    <t>maze_202_5</t>
+  </si>
+  <si>
+    <t>maze202_npc75|开始</t>
+  </si>
+  <si>
+    <t>dingshi_dianti</t>
+  </si>
+  <si>
+    <t>前往Room5031002;;1;5031002|前往Room5031003;;1;5031003|前往Room5031004;;1;5031004|前往Room5031007;;1;5031007</t>
+  </si>
+  <si>
+    <t>heping_dianti</t>
+  </si>
+  <si>
+    <t>npc_biaonv001</t>
+  </si>
+  <si>
+    <t>前往Room5021005;;1;5021005|前往Room5021006;;1;5021006</t>
+  </si>
+  <si>
+    <t>xt_kaiselin02</t>
+  </si>
+  <si>
+    <t>xt_tuling</t>
+  </si>
+  <si>
+    <t>xt_yuanan</t>
+  </si>
+  <si>
+    <t>yuanan</t>
+  </si>
+  <si>
+    <t>xt_duheng</t>
+  </si>
+  <si>
+    <t>xt_npc_female01</t>
+  </si>
+  <si>
+    <t>xt_niefei</t>
+  </si>
+  <si>
+    <t>niefei</t>
+  </si>
+  <si>
+    <t>Intro_partol|巡逻问候</t>
+  </si>
+  <si>
+    <t>XT_Zhaoli_elevator</t>
+  </si>
+  <si>
+    <t>开始巡逻;;2;ui_quest/ui_popup_patrol</t>
+  </si>
+  <si>
+    <t>xt_guyue</t>
+  </si>
+  <si>
+    <t>guyue</t>
+  </si>
+  <si>
+    <t>xt_guqiu</t>
+  </si>
+  <si>
+    <t>guqiu</t>
+  </si>
+  <si>
+    <t>stsqiandaoguan</t>
+  </si>
+  <si>
+    <t>spical_login|问候</t>
+  </si>
+  <si>
+    <t>xt_xiangjiniang</t>
+  </si>
+  <si>
+    <t>xiangjiniang</t>
+  </si>
+  <si>
+    <t>xt_baixiuzhu</t>
+  </si>
+  <si>
     <t>baixiuzhu</t>
   </si>
   <si>
-    <t>maze_202_2</t>
-  </si>
-  <si>
-    <t>maze_202_3</t>
-  </si>
-  <si>
-    <t>maze_202_4</t>
-  </si>
-  <si>
-    <t>maze_202_5</t>
-  </si>
-  <si>
-    <t>miermier</t>
-  </si>
-  <si>
-    <t>maze202_npc75|开始</t>
-  </si>
-  <si>
-    <t>dingshi_dianti</t>
-  </si>
-  <si>
-    <t>前往Room5031002;;1;5031002|前往Room5031003;;1;5031003|前往Room5031004;;1;5031004|前往Room5031007;;1;5031007</t>
-  </si>
-  <si>
-    <t>heping_dianti</t>
-  </si>
-  <si>
-    <t>npc_biaonv001</t>
-  </si>
-  <si>
-    <t>前往Room5021005;;1;5021005|前往Room5021006;;1;5021006</t>
-  </si>
-  <si>
-    <t>xt_kaiselin02</t>
-  </si>
-  <si>
-    <t>xt_tuling</t>
-  </si>
-  <si>
-    <t>xt_niefei</t>
-  </si>
-  <si>
-    <t>niefei</t>
-  </si>
-  <si>
-    <t>xt_yuanan</t>
-  </si>
-  <si>
-    <t>yuanan</t>
-  </si>
-  <si>
-    <t>xt_duheng</t>
-  </si>
-  <si>
-    <t>xt_npc_female01</t>
-  </si>
-  <si>
-    <t>Intro_partol|巡逻问候</t>
-  </si>
-  <si>
-    <t>XT_Zhaoli_elevator</t>
-  </si>
-  <si>
-    <t>开始巡逻;;2;ui_quest/ui_popup_patrol</t>
-  </si>
-  <si>
-    <t>xt_guyue</t>
-  </si>
-  <si>
-    <t>guyue</t>
-  </si>
-  <si>
-    <t>xt_tengjiang_battle</t>
-  </si>
-  <si>
-    <t>tengjiangwuliu</t>
-  </si>
-  <si>
-    <t>xt_guqiu</t>
-  </si>
-  <si>
-    <t>guqiu</t>
-  </si>
-  <si>
-    <t>stsqiandaoguan</t>
-  </si>
-  <si>
-    <t>spical_login|问候</t>
-  </si>
-  <si>
-    <t>xt_xiangjiniang</t>
-  </si>
-  <si>
-    <t>xiangjiniang</t>
-  </si>
-  <si>
-    <t>xt_baixiuzhu</t>
-  </si>
-  <si>
     <t>xt_xiaonvhai</t>
   </si>
   <si>
@@ -514,21 +511,15 @@
     <t>前往Room5002003;;1;5002003</t>
   </si>
   <si>
-    <t>xunluoniefei</t>
-  </si>
-  <si>
     <t>xt_lijiahu</t>
   </si>
   <si>
+    <t>xt_shechu_wenhou|问候</t>
+  </si>
+  <si>
     <t>xt_yuangong</t>
   </si>
   <si>
-    <t>xt_zaochashaonv</t>
-  </si>
-  <si>
-    <t>obj_zaochashaonv</t>
-  </si>
-  <si>
     <t>xt_biaozhunnv1</t>
   </si>
   <si>
@@ -878,97 +869,202 @@
   </si>
   <si>
     <t>员工20</t>
+  </si>
+  <si>
+    <t>xt_yanjingnan</t>
+  </si>
+  <si>
+    <t>眼镜男</t>
+  </si>
+  <si>
+    <t>xt_mizui_wenhou|通用问候</t>
+  </si>
+  <si>
+    <t>xt_weisuonan</t>
+  </si>
+  <si>
+    <t>猥琐男</t>
+  </si>
+  <si>
+    <t>maze_301_1</t>
+  </si>
+  <si>
+    <t>顾客1</t>
+  </si>
+  <si>
+    <t>maze_301_2</t>
+  </si>
+  <si>
+    <t>顾客2</t>
+  </si>
+  <si>
+    <t>maze_301_3</t>
+  </si>
+  <si>
+    <t>顾客3</t>
+  </si>
+  <si>
+    <t>maze_302_1</t>
+  </si>
+  <si>
+    <t>顾客4</t>
+  </si>
+  <si>
+    <t>maze_302_2</t>
+  </si>
+  <si>
+    <t>顾客5</t>
+  </si>
+  <si>
+    <t>maze_302_3</t>
+  </si>
+  <si>
+    <t>顾客6</t>
+  </si>
+  <si>
+    <t>maze_302_5</t>
+  </si>
+  <si>
+    <t>顾客7</t>
+  </si>
+  <si>
+    <t>对话框开启前置主任务（完成后显示）</t>
+  </si>
+  <si>
+    <t>对话框开启后置主任务（完成后消失）</t>
   </si>
   <si>
     <t>功能性(纯客户端)组
 对话框文本;功能类型Id;参数1;参数2</t>
   </si>
   <si>
+    <t>obj_luzhang_anim</t>
+  </si>
+  <si>
+    <t>ui_inspector_fight</t>
+  </si>
+  <si>
+    <t>obj_dianshiniang</t>
+  </si>
+  <si>
+    <t>obj_upan</t>
+  </si>
+  <si>
+    <t>obj_blankclick</t>
+  </si>
+  <si>
+    <t>obj_find3_1</t>
+  </si>
+  <si>
+    <t>obj_find3_2</t>
+  </si>
+  <si>
+    <t>obj_find3_3</t>
+  </si>
+  <si>
+    <t>obj_find1_1</t>
+  </si>
+  <si>
+    <t>obj_find1_2</t>
+  </si>
+  <si>
+    <t>obj_find1_3</t>
+  </si>
+  <si>
+    <t>obj_zhiming_battle</t>
+  </si>
+  <si>
+    <t>obj_zhimingyongbao</t>
+  </si>
+  <si>
+    <t>obj_leidaniang</t>
+  </si>
+  <si>
+    <t>obj_closed_box</t>
+  </si>
+  <si>
+    <t>obj_findkey_1</t>
+  </si>
+  <si>
+    <t>obj_findkey_2</t>
+  </si>
+  <si>
+    <t>obj_findkey_3</t>
+  </si>
+  <si>
+    <t>obj_dianshiji</t>
+  </si>
+  <si>
+    <t>obj_sidedianshiji</t>
+  </si>
+  <si>
+    <t>xt_dianzhuang_battle</t>
+  </si>
+  <si>
+    <t>obj_dianzhuangshaonv</t>
+  </si>
+  <si>
+    <t>obj_shechu_2d_half</t>
+  </si>
+  <si>
+    <t>obj_baoreyinfu</t>
+  </si>
+  <si>
+    <t>obj_renxingtuya</t>
+  </si>
+  <si>
+    <t>obj_chaobopin667</t>
+  </si>
+  <si>
+    <t>obj_xinghongruqin</t>
+  </si>
+  <si>
+    <t>obj_zhongguiwange</t>
+  </si>
+  <si>
+    <t>obj_qiqiushangfan</t>
+  </si>
+  <si>
+    <t>xt_zaochashaonv</t>
+  </si>
+  <si>
+    <t>obj_zaochashaonv</t>
+  </si>
+  <si>
     <t>obj_luzhang_battle</t>
   </si>
   <si>
     <t>obj_luzhang</t>
   </si>
   <si>
-    <t>obj_dianshiniang</t>
-  </si>
-  <si>
-    <t>obj_upan</t>
-  </si>
-  <si>
-    <t>obj_blankclick</t>
-  </si>
-  <si>
-    <t>obj_find3_1</t>
-  </si>
-  <si>
-    <t>obj_find3_2</t>
-  </si>
-  <si>
-    <t>obj_find3_3</t>
-  </si>
-  <si>
-    <t>obj_find1_1</t>
-  </si>
-  <si>
-    <t>obj_find1_2</t>
-  </si>
-  <si>
-    <t>obj_find1_3</t>
-  </si>
-  <si>
-    <t>obj_zhiming_battle</t>
-  </si>
-  <si>
-    <t>obj_zhimingyongbao</t>
-  </si>
-  <si>
-    <t>obj_leidaniang</t>
-  </si>
-  <si>
-    <t>obj_closed_box</t>
-  </si>
-  <si>
-    <t>obj_findkey_1</t>
-  </si>
-  <si>
-    <t>obj_findkey_2</t>
-  </si>
-  <si>
-    <t>obj_findkey_3</t>
-  </si>
-  <si>
-    <t>obj_dianshiji</t>
-  </si>
-  <si>
-    <t>obj_sidedianshiji</t>
-  </si>
-  <si>
-    <t>xt_dianzhuang_battle</t>
-  </si>
-  <si>
-    <t>obj_dianzhuangshaonv</t>
-  </si>
-  <si>
-    <t>obj_shechu_2d_half</t>
-  </si>
-  <si>
-    <t>obj_baoreyinfu</t>
-  </si>
-  <si>
-    <t>obj_renxingtuya</t>
-  </si>
-  <si>
-    <t>obj_chaobopin667</t>
-  </si>
-  <si>
-    <t>obj_xinghongruqin</t>
-  </si>
-  <si>
-    <t>obj_zhongguiwange</t>
-  </si>
-  <si>
-    <t>obj_qiqiushangfan</t>
+    <t>obj_blankclick_qiqiu</t>
+  </si>
+  <si>
+    <t>obj_trash_box</t>
+  </si>
+  <si>
+    <t>obj_mizuijinchao</t>
+  </si>
+  <si>
+    <t>xt_mizui_wenhou|迷醉金钞问候1</t>
+  </si>
+  <si>
+    <t>obj_mizuijinchao_fight</t>
+  </si>
+  <si>
+    <t>obj_saicheniang</t>
+  </si>
+  <si>
+    <t>obj_saicheniang_talk</t>
+  </si>
+  <si>
+    <t>ui_inspector_talk</t>
+  </si>
+  <si>
+    <t>xt_tengjiang_battle</t>
+  </si>
+  <si>
+    <t>obj_tengjiangwuliu</t>
   </si>
   <si>
     <t>跳转Room(非任务)</t>
@@ -990,11 +1086,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1006,43 +1107,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1098,42 +1187,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,13 +1509,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1565,7 +1660,8 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <f>ROW()-4</f>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -1580,7 +1676,8 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <f t="shared" ref="A5:A14" si="0">ROW()-4</f>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -1595,7 +1692,8 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -1610,7 +1708,8 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -1627,7 +1726,8 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>40</v>
@@ -1644,7 +1744,8 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
@@ -1658,7 +1759,8 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
@@ -1675,6 +1777,9 @@
       <c r="G10" t="s">
         <v>47</v>
       </c>
+      <c r="J10">
+        <v>1115</v>
+      </c>
       <c r="L10" t="s">
         <v>48</v>
       </c>
@@ -1684,7 +1789,8 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>50</v>
@@ -1695,7 +1801,8 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>52</v>
@@ -1709,7 +1816,8 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
@@ -1720,7 +1828,8 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
@@ -1731,7 +1840,8 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>12</v>
+        <f t="shared" ref="A15:A24" si="1">ROW()-4</f>
+        <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>57</v>
@@ -1742,7 +1852,8 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -1753,7 +1864,8 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>59</v>
@@ -1764,7 +1876,8 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>61</v>
@@ -1775,7 +1888,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -1786,7 +1900,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>63</v>
@@ -1797,24 +1912,26 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
         <v>65</v>
-      </c>
-      <c r="G21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
@@ -1824,32 +1941,34 @@
         <v>32</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>35</v>
@@ -1857,10 +1976,11 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>22</v>
+        <f t="shared" ref="A25:A34" si="2">ROW()-4</f>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>43</v>
@@ -1868,844 +1988,987 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
+      <c r="H29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B34" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <f t="shared" ref="A35:A44" si="3">ROW()-4</f>
         <v>31</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="B35" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="B38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39">
+      <c r="B39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="B40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41">
+      <c r="B41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <f t="shared" si="3"/>
         <v>38</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>104</v>
+      </c>
+      <c r="L42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="G43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44">
+      <c r="B44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <f t="shared" ref="A45:A54" si="4">ROW()-4</f>
         <v>41</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" t="s">
-        <v>106</v>
-      </c>
-      <c r="L44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="8">
+      <c r="B45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
-      <c r="G45" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46">
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47">
+      <c r="B47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>45</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>47</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>48</v>
+        <f t="shared" si="4"/>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>51</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>52</v>
+        <f t="shared" ref="A55:A64" si="5">ROW()-4</f>
+        <v>51</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>53</v>
+        <f t="shared" si="5"/>
+        <v>52</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>53</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>57</v>
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>58</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>59</v>
+        <f t="shared" si="5"/>
+        <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>59</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>61</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>62</v>
+        <f t="shared" ref="A65:A74" si="6">ROW()-4</f>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>63</v>
+        <f t="shared" si="6"/>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>63</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>65</v>
+        <f t="shared" si="6"/>
+        <v>64</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>66</v>
+        <f t="shared" si="6"/>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>67</v>
+        <f t="shared" si="6"/>
+        <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>68</v>
+        <f t="shared" si="6"/>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>69</v>
+        <f t="shared" si="6"/>
+        <v>68</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>71</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>72</v>
+        <f t="shared" ref="A75:A84" si="7">ROW()-4</f>
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>73</v>
+        <f t="shared" si="7"/>
+        <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>74</v>
+        <f t="shared" si="7"/>
+        <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>76</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C80" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81">
+      <c r="B81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" t="s">
-        <v>210</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82">
+      <c r="B82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C82" t="s">
-        <v>213</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83">
+      <c r="B83" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C83" t="s">
-        <v>216</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84">
+      <c r="B84" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <f t="shared" ref="A85:A92" si="8">ROW()-4</f>
         <v>81</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C84" t="s">
-        <v>219</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>82</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C85" t="s">
-        <v>222</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>83</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C86" t="s">
-        <v>225</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>84</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C87" t="s">
-        <v>228</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>229</v>
+      <c r="D90" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2722,16 +2985,16 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="17.25" style="1" customWidth="1"/>
@@ -2773,13 +3036,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -2869,41 +3132,50 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1001</v>
+        <f>ROW()+996</f>
+        <v>1000</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1002</v>
+        <f t="shared" ref="A5:A14" si="0">ROW()+996</f>
+        <v>1001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1003</v>
+        <f t="shared" si="0"/>
+        <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -2911,13 +3183,14 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1004</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -2925,13 +3198,14 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1005</v>
+        <f t="shared" si="0"/>
+        <v>1004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -2939,13 +3213,14 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1006</v>
+        <f t="shared" si="0"/>
+        <v>1005</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -2953,13 +3228,14 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1007</v>
+        <f t="shared" si="0"/>
+        <v>1006</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -2967,13 +3243,14 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>1008</v>
+        <f t="shared" si="0"/>
+        <v>1007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -2981,13 +3258,14 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>1009</v>
+        <f t="shared" si="0"/>
+        <v>1008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -2995,13 +3273,14 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>1010</v>
+        <f t="shared" si="0"/>
+        <v>1009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -3009,27 +3288,32 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>1011</v>
+        <f t="shared" si="0"/>
+        <v>1010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>1012</v>
+        <f t="shared" ref="A15:A24" si="1">ROW()+996</f>
+        <v>1011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -3037,191 +3321,378 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>1013</v>
+        <f t="shared" si="1"/>
+        <v>1012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>1014</v>
+        <f t="shared" si="1"/>
+        <v>1013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>1015</v>
+        <f t="shared" si="1"/>
+        <v>1014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>1016</v>
+        <f t="shared" si="1"/>
+        <v>1015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>1017</v>
+        <f t="shared" si="1"/>
+        <v>1016</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>1018</v>
+        <f t="shared" si="1"/>
+        <v>1017</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>1019</v>
+        <f t="shared" si="1"/>
+        <v>1018</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>1020</v>
+        <f t="shared" si="1"/>
+        <v>1019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>1021</v>
+        <f t="shared" si="1"/>
+        <v>1020</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>1023</v>
+        <f t="shared" ref="A25:A37" si="2">ROW()+996</f>
+        <v>1021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>1024</v>
+        <f t="shared" si="2"/>
+        <v>1022</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>1025</v>
+        <f t="shared" si="2"/>
+        <v>1023</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1026</v>
+        <f t="shared" si="2"/>
+        <v>1024</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
+      <c r="F28" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>1025</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>1026</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>1027</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>1028</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>1029</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>1030</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>1031</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>1032</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>1033</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" t="s">
+        <v>290</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3237,7 +3708,7 @@
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3248,7 +3719,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3256,7 +3727,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="B3">
         <v>2</v>
